--- a/examples/features/core-lusid/data/as-at-POC-txns.xlsx
+++ b/examples/features/core-lusid/data/as-at-POC-txns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\code\lusid-sdks\RBC_POC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B45CDE-7069-4F53-901A-1A0F0C7FB55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D95291-F5F9-47D0-BC7C-E76A3F6367B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14880" yWindow="-17235" windowWidth="5400" windowHeight="2865" activeTab="3" xr2:uid="{69DFCBB1-7DD5-435B-ACFE-FC96A1497D6B}"/>
+    <workbookView xWindow="-14880" yWindow="-17370" windowWidth="5400" windowHeight="2865" activeTab="3" xr2:uid="{69DFCBB1-7DD5-435B-ACFE-FC96A1497D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="37">
   <si>
     <t>Portfolio</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
   </si>
   <si>
     <t>txn_0002</t>
@@ -555,18 +558,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -593,7 +596,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -613,7 +616,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -653,18 +656,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -691,21 +694,21 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
@@ -732,10 +735,10 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -849,18 +852,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -887,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -895,16 +898,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -922,24 +925,24 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -957,24 +960,24 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -992,10 +995,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1011,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1046,18 +1049,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1084,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
